--- a/Health_parameters.xlsx
+++ b/Health_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UAM\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UAM\Escritorio\Data analysis\R documents\Proyecto analisis estadistico mis parametros de salud\Health_analysis\Quarto_refort_definitive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D3EE98-D26F-4AC0-97F4-EA99FF1A0EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A1B39-3440-4CE4-880F-F4CA3D8F8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98578A6F-6FFD-4A9D-B9E8-3DEADA1750FC}"/>
   </bookViews>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>momento_del_dia</t>
+    <t>time</t>
   </si>
   <si>
-    <t>ps</t>
+    <t>sp</t>
   </si>
   <si>
-    <t>pd</t>
+    <t>dp</t>
   </si>
   <si>
-    <t>pulso</t>
+    <t>pulse</t>
   </si>
   <si>
-    <t>peso</t>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
